--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1452239.721515885</v>
+        <v>1446518.109548</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>177.7273766303734</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.60104689954375</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.13678349751312</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.03156470826285</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.945562993021158</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>209.0940911210006</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>72.50296533827013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>61.60385878691238</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.23490948285903</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>51.37677186479849</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.37445137896749</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249738</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>111.5442509713937</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>203.1977700471487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>88.94137965734448</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>55.04428069320112</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>11.61592966729513</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>191.4390920434022</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>6.38006817584793</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492674</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.7312913064989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.881273373638</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4366,16 +4366,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.184256601733</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2343.549589573795</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2089.787804211887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>717.9960905617243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>717.9960905617243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>717.9960905617243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>717.9960905617243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2694.173774863656</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2694.173774863656</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2694.173774863656</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2363.110887520085</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628377</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.752638628377</v>
+        <v>2010.34223224997</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>275.0913939262628</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>275.0913939262628</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>127.1783003438696</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541696</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5050,43 +5050,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.1038984121913</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C13" t="n">
-        <v>339.1038984121913</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D13" t="n">
-        <v>339.1038984121913</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.1038984121913</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,22 +5284,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5348,7 +5348,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5357,28 +5357,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.0033510423848</v>
+        <v>782.1255161526733</v>
       </c>
       <c r="C16" t="n">
-        <v>343.0033510423848</v>
+        <v>613.1893332247664</v>
       </c>
       <c r="D16" t="n">
-        <v>192.8867116300491</v>
+        <v>463.0726938124307</v>
       </c>
       <c r="E16" t="n">
-        <v>192.8867116300491</v>
+        <v>315.1596002300375</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413794</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433621</v>
+        <v>1184.566560126443</v>
       </c>
       <c r="Y16" t="n">
-        <v>343.0033510423848</v>
+        <v>963.773980982913</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5521,16 +5521,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
         <v>4470.748294107237</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.8045919840855</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>749.8045919840855</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>599.6879525717497</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7748589893566</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953327</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442091</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927052</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.657581931533</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626702</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208154</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143252</v>
+        <v>709.6864413838548</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4530568143252</v>
+        <v>481.6968904858375</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4530568143252</v>
+        <v>260.9043113423073</v>
       </c>
     </row>
     <row r="20">
@@ -5731,49 +5731,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888629</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.866738172571</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1956.343466104703</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1363.220731826922</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1108.536243621035</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>819.1190735840747</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>591.1295226860574</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>591.1295226860574</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6235,43 +6235,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.146109903272</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1334.461621697385</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1045.044451660424</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>817.0549007624069</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>596.2623216188767</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6469,25 +6469,25 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>963.4596778203087</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.252256963839</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4596778203087</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,31 +6706,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1172.647446689874</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519703</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.3287722635405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1481.454304443197</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1226.76981623731</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1226.76981623731</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>1226.76981623731</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>1005.97723709378</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6934,34 +6934,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464785</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,37 +7031,37 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2917.269290763411</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456396</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X37" t="n">
-        <v>3213.574689558379</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y37" t="n">
-        <v>2992.782110414849</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,7 +7159,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7171,37 +7171,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7341,43 +7341,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689061</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U40" t="n">
-        <v>1883.949150983575</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783436</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.847492740728</v>
+        <v>619.855984141383</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.85794184271</v>
+        <v>391.8664332433657</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>171.0738540998356</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
@@ -7423,34 +7423,34 @@
         <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O41" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,16 +7508,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,22 +7596,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
         <v>277.2094992786341</v>
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390115</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3942.370854773035</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>3773.434671845128</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>3623.318032432792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>3475.404938850399</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>3328.514991352489</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4778.05172241972</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>4556.285106989246</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>4267.182240114889</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>4267.182240114889</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>4267.182240114889</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>4267.182240114889</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>4124.019319603274</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704411</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570132</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>251.7982062376315</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>77.35795430876988</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>104.3976710547468</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260173</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704173</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P41" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>105.6429623117155</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>166.3497438692358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>94.04427615813276</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.2102019731273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696352</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>33.87679705153759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>83.32522828944232</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>197.2704585482684</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>231.1675575124117</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>155.6308914313327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>94.77274616221069</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.388957155594</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270106</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>76.85336204559587</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934114.8039074735</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>934114.8039074735</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185699</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185696</v>
-      </c>
       <c r="E2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.1442643798</v>
       </c>
       <c r="F2" t="n">
         <v>476498.1442643799</v>
@@ -26337,10 +26337,10 @@
         <v>476498.1442643799</v>
       </c>
       <c r="J2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="K2" t="n">
         <v>476498.1442643798</v>
-      </c>
-      <c r="K2" t="n">
-        <v>476498.1442643797</v>
       </c>
       <c r="L2" t="n">
         <v>476498.1442643798</v>
@@ -26355,7 +26355,7 @@
         <v>476498.1442643798</v>
       </c>
       <c r="P2" t="n">
-        <v>476498.1442643797</v>
+        <v>476498.1442643798</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709189</v>
       </c>
-      <c r="G4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372408.4917518138</v>
+        <v>-372408.4917518137</v>
       </c>
       <c r="C6" t="n">
+        <v>217559.3874627308</v>
+      </c>
+      <c r="D6" t="n">
         <v>217559.3874627307</v>
       </c>
-      <c r="D6" t="n">
-        <v>217559.3874627302</v>
-      </c>
       <c r="E6" t="n">
-        <v>-368882.395979832</v>
+        <v>-369554.3508820902</v>
       </c>
       <c r="F6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="G6" t="n">
-        <v>358495.0180135744</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="H6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="I6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113164</v>
       </c>
       <c r="J6" t="n">
-        <v>182071.7988209813</v>
+        <v>181399.8439187235</v>
       </c>
       <c r="K6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="L6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="M6" t="n">
-        <v>228852.7031746296</v>
+        <v>228180.7482723716</v>
       </c>
       <c r="N6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="O6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
       <c r="P6" t="n">
-        <v>358495.0180135743</v>
+        <v>357823.0631113163</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>176.9556649903096</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>216.4340585585405</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>95.27892931145841</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>2.496509910248449</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.09118524665146</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>171.4701498159504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>177.143847535053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>72.91808268466112</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552631</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306895</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257257</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,22 +36603,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>804.1000416505429</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>629.6597897216814</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>559.987785447079</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814178</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552608</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37709,7 +37709,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934866</v>
       </c>
       <c r="N40" t="n">
         <v>344.8569461675401</v>
@@ -37791,13 +37791,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P41" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1446518.109548</v>
+        <v>1449923.600672449</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10983774.06158199</v>
+        <v>10983774.061582</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>229.2865108189037</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.03250833503009</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>233.6257157225928</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>325.2557485598865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>2.945562993021158</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>136.1656876730704</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>61.60385878691238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.32202182135212</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>51.37677186479849</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380394</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249738</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>36.15999212057441</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>49.00186811940955</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.689844124971</v>
+        <v>43.69557483915428</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>61.54499709292046</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>131.3542190999256</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.38006817584793</v>
+        <v>165.9330210108117</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492674</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>186.2120483577854</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>130.965552377036</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>113.2150989222328</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>831.7452473534333</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>445.9569947551891</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>439.0114940059856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>411.2797076961344</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982241</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>861.3583373640504</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>443.3945292622373</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,49 +4570,49 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2694.173774863656</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2694.173774863656</v>
+        <v>2328.401815203218</v>
       </c>
       <c r="U8" t="n">
-        <v>2694.173774863656</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.110887520085</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W8" t="n">
-        <v>2010.34223224997</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X8" t="n">
-        <v>2010.34223224997</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4941,28 +4941,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5044,16 +5044,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L11" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
@@ -5123,25 +5123,25 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.5901955154781</v>
+        <v>439.1815555980836</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286979</v>
+        <v>270.2453726701767</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>120.128733257841</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>120.128733257841</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>120.128733257841</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839441</v>
@@ -5199,10 +5199,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570255</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590082</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.5901955154781</v>
+        <v>620.8300204283233</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L14" t="n">
         <v>1237.706702364128</v>
@@ -5290,40 +5290,40 @@
         <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.1255161526733</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C16" t="n">
-        <v>613.1893332247664</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D16" t="n">
-        <v>463.0726938124307</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="E16" t="n">
-        <v>315.1596002300375</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
         <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.556111024461</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.556111024461</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.566560126443</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.773980982913</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5585,37 +5585,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953327</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442091</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927052</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104707</v>
+        <v>1919.818221538466</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931533</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501059</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626702</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208154</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838548</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858375</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423073</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1906.846629620451</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1715.160745447277</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1493.394130016804</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1204.291263142447</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>949.6067749365602</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>660.1896048995997</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,43 +5974,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1420.14263648317</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>902.7359155481925</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>681.9433364046623</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,46 +6232,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>2812.369300656583</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986038</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>805.3189328470098</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>743.1522691167871</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6490,25 +6490,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6545,19 +6545,19 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6566,16 +6566,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6706,22 +6706,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1287.040180767972</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.840519464785</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294614</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353396</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7031,34 +7031,34 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
         <v>1138.808109517387</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264.4972173763014</v>
+        <v>875.4238276939707</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839444</v>
+        <v>706.4876447660638</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839444</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839444</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1949.898952795766</v>
+        <v>1788.734353972571</v>
       </c>
       <c r="T37" t="n">
-        <v>1728.132337365293</v>
+        <v>1566.967738542097</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.029470490936</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="V37" t="n">
-        <v>1184.344982285049</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="W37" t="n">
-        <v>894.9278122480886</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="X37" t="n">
-        <v>666.9382613500712</v>
+        <v>1277.86487166774</v>
       </c>
       <c r="Y37" t="n">
-        <v>446.1456822065411</v>
+        <v>1057.07229252421</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7189,19 +7189,19 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,16 +7210,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.238303939012</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7341,43 +7341,43 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862235</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689061</v>
+        <v>1768.250487965527</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258587</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.95764238423</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783436</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W40" t="n">
-        <v>619.855984141383</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433657</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998356</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7508,34 +7508,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>958.1479941221958</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>825.859557377715</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277306</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>170.1140909277307</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>297.8289162490814</v>
       </c>
       <c r="N26" t="n">
-        <v>251.7982062376315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10354,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>219.9458872952496</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>219.3344627260173</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>288.0478149561022</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>105.6429623117155</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>141.7037864376761</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>94.04427615813276</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>88.71226382522428</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696352</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>52.77216054947294</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>39.93028455063779</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696625</v>
+        <v>136.136405342783</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>157.0396562591743</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>94.35543628911154</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>161.5631840798975</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>183.388957155594</v>
+        <v>23.83600432063017</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>87.61910097505881</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>934114.8039074733</v>
+        <v>934114.8039074732</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>934114.8039074732</v>
+        <v>934114.8039074733</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26322,34 +26322,34 @@
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="F2" t="n">
         <v>476498.1442643798</v>
       </c>
-      <c r="F2" t="n">
-        <v>476498.1442643799</v>
-      </c>
       <c r="G2" t="n">
-        <v>476498.1442643799</v>
+        <v>476498.14426438</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="I2" t="n">
+        <v>476498.1442643798</v>
+      </c>
+      <c r="J2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="K2" t="n">
+        <v>476498.14426438</v>
+      </c>
+      <c r="L2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="J2" t="n">
-        <v>476498.1442643799</v>
-      </c>
-      <c r="K2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476498.1442643798</v>
-      </c>
       <c r="M2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="N2" t="n">
-        <v>476498.1442643798</v>
+        <v>476498.1442643797</v>
       </c>
       <c r="O2" t="n">
         <v>476498.1442643798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-372408.4917518137</v>
+        <v>-372408.4917518139</v>
       </c>
       <c r="C6" t="n">
         <v>217559.3874627308</v>
@@ -26530,40 +26530,40 @@
         <v>217559.3874627307</v>
       </c>
       <c r="E6" t="n">
-        <v>-369554.3508820902</v>
+        <v>-368949.5914700581</v>
       </c>
       <c r="F6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="G6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233486</v>
       </c>
       <c r="H6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="I6" t="n">
-        <v>357823.0631113164</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="J6" t="n">
-        <v>181399.8439187235</v>
+        <v>182004.6033307554</v>
       </c>
       <c r="K6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233486</v>
       </c>
       <c r="L6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233483</v>
       </c>
       <c r="M6" t="n">
-        <v>228180.7482723716</v>
+        <v>228785.5076844037</v>
       </c>
       <c r="N6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="O6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233485</v>
       </c>
       <c r="P6" t="n">
-        <v>357823.0631113163</v>
+        <v>358427.8225233485</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>184.4976592018913</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>4.167450853506899</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>90.29705704176436</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.496509910248449</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>171.4701498159504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>80.28263268458736</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200628</v>
+        <v>625.7042053200624</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306895</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>836.750032079308</v>
       </c>
       <c r="N26" t="n">
-        <v>804.1000416505429</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>675.5360016875818</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>556.5257492814178</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690137</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37709,7 +37709,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934866</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
         <v>344.8569461675401</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>766.6741794499121</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
